--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\lentopallo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA386EDE-1B8F-499B-A785-732E7F4CF23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EB317-996F-48C3-873D-32000414A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="0" yWindow="1164" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +169,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,18 +205,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,28 +423,28 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="C7">
-            <v>103</v>
+            <v>104</v>
           </cell>
           <cell r="D7">
-            <v>50</v>
+            <v>51</v>
           </cell>
           <cell r="E7">
             <v>0</v>
           </cell>
           <cell r="F7">
-            <v>53</v>
+            <v>52</v>
           </cell>
           <cell r="G7">
-            <v>62</v>
+            <v>67</v>
           </cell>
           <cell r="H7">
-            <v>71</v>
+            <v>75</v>
           </cell>
           <cell r="I7">
-            <v>3437</v>
+            <v>3487</v>
           </cell>
           <cell r="J7">
-            <v>3619</v>
+            <v>3651</v>
           </cell>
         </row>
       </sheetData>
@@ -477,22 +526,22 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>22</v>
+            <v>24</v>
           </cell>
           <cell r="D8">
-            <v>13</v>
+            <v>9</v>
           </cell>
           <cell r="E8">
             <v>0</v>
           </cell>
           <cell r="F8">
-            <v>9</v>
+            <v>15</v>
           </cell>
           <cell r="G8">
-            <v>1080</v>
+            <v>1137</v>
           </cell>
           <cell r="H8">
-            <v>1041</v>
+            <v>1265</v>
           </cell>
         </row>
       </sheetData>
@@ -525,34 +574,7 @@
       <sheetName val="U14_2023"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="C12">
-            <v>63</v>
-          </cell>
-          <cell r="D12">
-            <v>22</v>
-          </cell>
-          <cell r="E12">
-            <v>2</v>
-          </cell>
-          <cell r="F12">
-            <v>39</v>
-          </cell>
-          <cell r="G12">
-            <v>71</v>
-          </cell>
-          <cell r="H12">
-            <v>125</v>
-          </cell>
-          <cell r="I12">
-            <v>2220</v>
-          </cell>
-          <cell r="J12">
-            <v>2414</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -860,430 +882,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="1" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f>'[1]E 2016-2021'!$C$12</f>
         <v>94</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>'[1]E 2016-2021'!$D$11</f>
         <v>69</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <f>'[1]E 2016-2021'!$E$12</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <f>'[1]E 2016-2021'!$F$12</f>
         <v>39</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <f>'[1]E 2016-2021'!$G$12</f>
         <v>95</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <f>'[1]E 2016-2021'!$H$12</f>
         <v>65</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <f>'[1]E 2016-2021'!$I$12</f>
         <v>3158</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <f>'[1]E 2016-2021'!$J$12</f>
         <v>2831</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>'[1]E 2016-2021'!$C$13</f>
         <v>34</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>'[1]E 2016-2021'!$D$13</f>
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>'[1]E 2016-2021'!$E$13</f>
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>'[1]E 2016-2021'!$F$13</f>
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>'[1]E 2016-2021'!$G$13</f>
         <v>35</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>'[1]E 2016-2021'!$H$13</f>
         <v>33</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>'[1]E 2016-2021'!$I$13</f>
         <v>1586</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>'[1]E 2016-2021'!$J$13</f>
         <v>1532</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>'[2]D 2019-2024'!$C$9</f>
         <v>137</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f>'[2]D 2019-2024'!$D$9</f>
         <v>80</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f>'[2]D 2019-2024'!$E$9</f>
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <f>'[2]D 2019-2024'!$F$9</f>
         <v>44</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <f>'[2]D 2019-2024'!$G$9</f>
         <v>140</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <f>'[2]D 2019-2024'!$H$9</f>
         <v>102</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <f>'[2]D 2019-2024'!$I$9</f>
         <v>6386</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <f>'[2]D 2019-2024'!$J$9</f>
         <v>5580</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>'[3]C 2021-2025'!$C$7</f>
-        <v>103</v>
-      </c>
-      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="D5" s="1">
         <f>'[3]C 2021-2025'!$D$7</f>
-        <v>50</v>
-      </c>
-      <c r="E5">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1">
         <f>'[3]C 2021-2025'!$E$7</f>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>'[3]C 2021-2025'!$F$7</f>
-        <v>53</v>
-      </c>
-      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1">
         <f>'[3]C 2021-2025'!$G$7</f>
-        <v>62</v>
-      </c>
-      <c r="H5">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1">
         <f>'[3]C 2021-2025'!$H$7</f>
-        <v>71</v>
-      </c>
-      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1">
         <f>'[3]C 2021-2025'!$I$7</f>
-        <v>3437</v>
-      </c>
-      <c r="J5">
+        <v>3487</v>
+      </c>
+      <c r="J5" s="1">
         <f>'[3]C 2021-2025'!$J$7</f>
-        <v>3619</v>
+        <v>3651</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f>'[4]B 2023-2025'!$C$5</f>
         <v>49</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f>'[4]B 2023-2025'!$D$5</f>
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f>'[4]B 2023-2025'!$E$5</f>
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <f>'[4]B 2023-2025'!$F$5</f>
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f>'[4]B 2023-2025'!$G$5</f>
         <v>49</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f>'[4]B 2023-2025'!$H$5</f>
         <v>49</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f>'[4]B 2023-2025'!$I$5</f>
         <v>2314</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <f>'[4]B 2023-2025'!$J$5</f>
         <v>2358</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>15.23</v>
       </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7">
+        <f>SUM(C2:C6)</f>
+        <v>418</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUM(D2:D6)</f>
+        <v>238</v>
+      </c>
+      <c r="E8" s="7">
+        <f>SUM(E2:E6)</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="7">
+        <f>SUM(F2:F6)</f>
+        <v>174</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(G2:G6)</f>
+        <v>386</v>
+      </c>
+      <c r="H8" s="7">
+        <f>SUM(H2:H6)</f>
+        <v>324</v>
+      </c>
+      <c r="I8" s="7">
+        <f>SUM(I2:I6)</f>
+        <v>16931</v>
+      </c>
+      <c r="J8" s="7">
+        <f>SUM(J2:J6)</f>
+        <v>15952</v>
+      </c>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" ref="C9:J9" si="0">SUM(C2:C6)</f>
-        <v>417</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <f>[5]powercup!$C$8</f>
+        <v>24</v>
+      </c>
+      <c r="D10" s="5">
+        <f>[5]powercup!$D$8</f>
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <f>[5]powercup!$E$8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f>[5]powercup!$F$8</f>
+        <v>15</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <f>[5]powercup!$G$8</f>
+        <v>1137</v>
+      </c>
+      <c r="J10" s="5">
+        <f>[5]powercup!$H$8</f>
+        <v>1265</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <f>[6]all!$C$12</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>[6]all!$D$12</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>[6]all!$E$12</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f>[6]all!$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f>[6]all!$G$12</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>[6]all!$H$12</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>[6]all!$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f>[6]all!$J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <f>SUM(C8:C11)</f>
+        <v>442</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:J13" si="0">SUM(D8:D11)</f>
+        <v>247</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="G9" s="1">
+        <v>189</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
-      <c r="H9" s="1">
+        <v>386</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="I9" s="1">
+        <v>324</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>16881</v>
-      </c>
-      <c r="J9" s="1">
+        <v>18068</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>15920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <f>[5]powercup!$C$8</f>
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <f>[5]powercup!$D$8</f>
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <f>[5]powercup!$E$8</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>[5]powercup!$F$8</f>
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <f>[5]powercup!$G$8</f>
-        <v>1080</v>
-      </c>
-      <c r="J12">
-        <f>[5]powercup!$H$8</f>
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <f>[6]all!$C$12</f>
-        <v>63</v>
-      </c>
-      <c r="D13">
-        <f>[6]all!$D$12</f>
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <f>[6]all!$E$12</f>
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <f>[6]all!$F$12</f>
-        <v>39</v>
-      </c>
-      <c r="G13">
-        <f>[6]all!$G$12</f>
-        <v>71</v>
-      </c>
-      <c r="H13">
-        <f>[6]all!$H$12</f>
-        <v>125</v>
-      </c>
-      <c r="I13">
-        <f>[6]all!$I$12</f>
-        <v>2220</v>
-      </c>
-      <c r="J13">
-        <f>[6]all!$J$12</f>
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <f>SUM(C9:C13)</f>
-        <v>502</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:J17" si="1">SUM(D9:D13)</f>
-        <v>272</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>223</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>452</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>445</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>20181</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>19375</v>
-      </c>
+        <v>17217</v>
+      </c>
+      <c r="K13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EB317-996F-48C3-873D-32000414A231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D10F0D-A905-4EC5-8476-0A804EEA7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1164" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -1162,35 +1162,35 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7">
-        <f>SUM(C2:C6)</f>
+        <f t="shared" ref="C8:J8" si="0">SUM(C2:C6)</f>
         <v>418</v>
       </c>
       <c r="D8" s="7">
-        <f>SUM(D2:D6)</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="E8" s="7">
-        <f>SUM(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8" s="7">
-        <f>SUM(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="G8" s="7">
-        <f>SUM(G2:G6)</f>
+        <f t="shared" si="0"/>
         <v>386</v>
       </c>
       <c r="H8" s="7">
-        <f>SUM(H2:H6)</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="I8" s="7">
-        <f>SUM(I2:I6)</f>
+        <f t="shared" si="0"/>
         <v>16931</v>
       </c>
       <c r="J8" s="7">
-        <f>SUM(J2:J6)</f>
+        <f t="shared" si="0"/>
         <v>15952</v>
       </c>
       <c r="K8" s="5"/>
@@ -1305,31 +1305,31 @@
         <v>442</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:J13" si="0">SUM(D8:D11)</f>
+        <f t="shared" ref="D13:J13" si="1">SUM(D8:D11)</f>
         <v>247</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>386</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18068</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17217</v>
       </c>
       <c r="K13" s="1"/>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D10F0D-A905-4EC5-8476-0A804EEA7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75392352-3D10-4A72-86EA-C0146A078C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1164" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>kaikki ottelut</t>
   </si>
@@ -109,9 +110,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>2023-</t>
-  </si>
-  <si>
     <t xml:space="preserve">powercup </t>
   </si>
   <si>
@@ -134,6 +132,15 @@
   </si>
   <si>
     <t>2024-2025</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2023-2026</t>
+  </si>
+  <si>
+    <t>2025-2026</t>
   </si>
 </sst>
 </file>
@@ -177,7 +184,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -232,19 +245,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,7 +480,8 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="B 2023-2025"/>
+      <sheetName val="B 2023-2026"/>
+      <sheetName val="B 2025-2026"/>
       <sheetName val="B 2024-2025"/>
       <sheetName val="B 2023-2024"/>
     </sheetNames>
@@ -474,31 +491,11 @@
           <cell r="C5">
             <v>49</v>
           </cell>
-          <cell r="D5">
-            <v>23</v>
-          </cell>
-          <cell r="E5">
-            <v>3</v>
-          </cell>
-          <cell r="F5">
-            <v>23</v>
-          </cell>
-          <cell r="G5">
-            <v>49</v>
-          </cell>
-          <cell r="H5">
-            <v>49</v>
-          </cell>
-          <cell r="I5">
-            <v>2314</v>
-          </cell>
-          <cell r="J5">
-            <v>2358</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -580,6 +577,21 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="A 2025-2027"/>
+      <sheetName val="A 2025-2026"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -882,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99567001-218C-45B4-A8EB-DA7B4798BC50}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,80 +906,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>'[1]E 2016-2021'!$C$12</f>
         <v>94</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>'[1]E 2016-2021'!$D$11</f>
         <v>69</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>'[1]E 2016-2021'!$E$12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>'[1]E 2016-2021'!$F$12</f>
         <v>39</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>'[1]E 2016-2021'!$G$12</f>
         <v>95</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>'[1]E 2016-2021'!$H$12</f>
         <v>65</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>'[1]E 2016-2021'!$I$12</f>
         <v>3158</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>'[1]E 2016-2021'!$J$12</f>
         <v>2831</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1015,46 +1027,46 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>'[2]D 2019-2024'!$C$9</f>
         <v>137</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>'[2]D 2019-2024'!$D$9</f>
         <v>80</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>'[2]D 2019-2024'!$E$9</f>
         <v>13</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>'[2]D 2019-2024'!$F$9</f>
         <v>44</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>'[2]D 2019-2024'!$G$9</f>
         <v>140</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>'[2]D 2019-2024'!$H$9</f>
         <v>102</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>'[2]D 2019-2024'!$I$9</f>
         <v>6386</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>'[2]D 2019-2024'!$J$9</f>
         <v>5580</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>24</v>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1062,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <f>'[3]C 2021-2025'!$C$7</f>
@@ -1097,242 +1109,283 @@
         <v>3651</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5">
-        <f>'[4]B 2023-2025'!$C$5</f>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'[4]B 2023-2026'!$C$5</f>
         <v>49</v>
       </c>
-      <c r="D6" s="5">
-        <f>'[4]B 2023-2025'!$D$5</f>
+      <c r="D6" s="4">
+        <f>'[4]B 2023-2026'!$D$5</f>
         <v>23</v>
       </c>
-      <c r="E6" s="5">
-        <f>'[4]B 2023-2025'!$E$5</f>
+      <c r="E6" s="4">
+        <f>'[4]B 2023-2026'!$E$5</f>
         <v>3</v>
       </c>
-      <c r="F6" s="5">
-        <f>'[4]B 2023-2025'!$F$5</f>
+      <c r="F6" s="4">
+        <f>'[4]B 2023-2026'!$F$5</f>
         <v>23</v>
       </c>
-      <c r="G6" s="5">
-        <f>'[4]B 2023-2025'!$G$5</f>
+      <c r="G6" s="4">
+        <f>'[4]B 2023-2026'!$G$5</f>
         <v>49</v>
       </c>
-      <c r="H6" s="5">
-        <f>'[4]B 2023-2025'!$H$5</f>
+      <c r="H6" s="4">
+        <f>'[4]B 2023-2026'!$H$5</f>
         <v>49</v>
       </c>
-      <c r="I6" s="5">
-        <f>'[4]B 2023-2025'!$I$5</f>
+      <c r="I6" s="4">
+        <f>'[4]B 2023-2026'!$I$5</f>
         <v>2314</v>
       </c>
-      <c r="J6" s="5">
-        <f>'[4]B 2023-2025'!$J$5</f>
+      <c r="J6" s="4">
+        <f>'[4]B 2023-2026'!$J$5</f>
         <v>2358</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>15.23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f>'[7]A 2025-2027'!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:J8" si="0">SUM(C2:C6)</f>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:J9" si="0">SUM(C2:C6)</f>
         <v>418</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>386</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>16931</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>15952</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
         <f>[5]powercup!$C$8</f>
         <v>24</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <f>[5]powercup!$D$8</f>
         <v>9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <f>[5]powercup!$E$8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <f>[5]powercup!$F$8</f>
         <v>15</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <f>[5]powercup!$G$8</f>
         <v>1137</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <f>[5]powercup!$H$8</f>
         <v>1265</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <f>[6]all!$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f>[6]all!$D$12</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f>[6]all!$E$12</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f>[6]all!$F$12</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <f>[6]all!$G$12</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>[6]all!$H$12</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>[6]all!$I$12</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <f>[6]all!$J$12</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4">
+        <f>[6]all!$C$12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>[6]all!$D$12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>[6]all!$E$12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>[6]all!$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>[6]all!$G$12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>[6]all!$H$12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>[6]all!$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>[6]all!$J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <f>SUM(C8:C11)</f>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>SUM(C9:C12)</f>
         <v>442</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:J13" si="1">SUM(D8:D11)</f>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:J14" si="1">SUM(D9:D12)</f>
         <v>247</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>386</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
         <v>18068</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>17217</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75392352-3D10-4A72-86EA-C0146A078C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA46EE6-809F-4ACB-8B86-D1EE6D34EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12240" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -489,7 +489,28 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
+            <v>52</v>
+          </cell>
+          <cell r="D5">
+            <v>25</v>
+          </cell>
+          <cell r="E5">
+            <v>3</v>
+          </cell>
+          <cell r="F5">
+            <v>24</v>
+          </cell>
+          <cell r="G5">
+            <v>53</v>
+          </cell>
+          <cell r="H5">
             <v>49</v>
+          </cell>
+          <cell r="I5">
+            <v>2470</v>
+          </cell>
+          <cell r="J5">
+            <v>2460</v>
           </cell>
         </row>
       </sheetData>
@@ -502,6 +523,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="A 2025-2027"/>
+      <sheetName val="A 2025-2026"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -556,7 +592,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -577,21 +613,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="A 2025-2027"/>
-      <sheetName val="A 2025-2026"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -897,7 +918,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,11 +1142,11 @@
       </c>
       <c r="C6" s="4">
         <f>'[4]B 2023-2026'!$C$5</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4">
         <f>'[4]B 2023-2026'!$D$5</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4">
         <f>'[4]B 2023-2026'!$E$5</f>
@@ -1133,11 +1154,11 @@
       </c>
       <c r="F6" s="4">
         <f>'[4]B 2023-2026'!$F$5</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4">
         <f>'[4]B 2023-2026'!$G$5</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4">
         <f>'[4]B 2023-2026'!$H$5</f>
@@ -1145,11 +1166,11 @@
       </c>
       <c r="I6" s="4">
         <f>'[4]B 2023-2026'!$I$5</f>
-        <v>2314</v>
+        <v>2470</v>
       </c>
       <c r="J6" s="4">
         <f>'[4]B 2023-2026'!$J$5</f>
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="K6" s="4">
         <v>15.23</v>
@@ -1163,35 +1184,35 @@
         <v>31</v>
       </c>
       <c r="C7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f>'[7]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$5</f>
         <v>0</v>
       </c>
       <c r="K7" s="5"/>
@@ -1216,11 +1237,11 @@
       <c r="B9" s="5"/>
       <c r="C9" s="7">
         <f t="shared" ref="C9:J9" si="0">SUM(C2:C6)</f>
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -1228,11 +1249,11 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
@@ -1240,11 +1261,11 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>16931</v>
+        <v>17087</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>15952</v>
+        <v>16054</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1269,29 +1290,29 @@
         <v>27</v>
       </c>
       <c r="C11" s="5">
-        <f>[5]powercup!$C$8</f>
+        <f>[6]powercup!$C$8</f>
         <v>24</v>
       </c>
       <c r="D11" s="5">
-        <f>[5]powercup!$D$8</f>
+        <f>[6]powercup!$D$8</f>
         <v>9</v>
       </c>
       <c r="E11" s="5">
-        <f>[5]powercup!$E$8</f>
+        <f>[6]powercup!$E$8</f>
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <f>[5]powercup!$F$8</f>
+        <f>[6]powercup!$F$8</f>
         <v>15</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <f>[5]powercup!$G$8</f>
+        <f>[6]powercup!$G$8</f>
         <v>1137</v>
       </c>
       <c r="J11" s="5">
-        <f>[5]powercup!$H$8</f>
+        <f>[6]powercup!$H$8</f>
         <v>1265</v>
       </c>
       <c r="K11" s="5"/>
@@ -1304,35 +1325,35 @@
         <v>28</v>
       </c>
       <c r="C12" s="4">
-        <f>[6]all!$C$12</f>
+        <f>[7]all!$C$12</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>[6]all!$D$12</f>
+        <f>[7]all!$D$12</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>[6]all!$E$12</f>
+        <f>[7]all!$E$12</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <f>[6]all!$F$12</f>
+        <f>[7]all!$F$12</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f>[6]all!$G$12</f>
+        <f>[7]all!$G$12</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>[6]all!$H$12</f>
+        <f>[7]all!$H$12</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>[6]all!$I$12</f>
+        <f>[7]all!$I$12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>[6]all!$J$12</f>
+        <f>[7]all!$J$12</f>
         <v>0</v>
       </c>
       <c r="K12" s="4"/>
@@ -1355,11 +1376,11 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>SUM(C9:C12)</f>
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:J14" si="1">SUM(D9:D12)</f>
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -1367,11 +1388,11 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
@@ -1379,11 +1400,11 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>18068</v>
+        <v>18224</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>17217</v>
+        <v>17319</v>
       </c>
       <c r="K14" s="4"/>
     </row>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA46EE6-809F-4ACB-8B86-D1EE6D34EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A3F02-A27D-44F9-AA7C-1F5F7EABC496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20604" windowHeight="13200" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>kaikki ottelut</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>2025-2026</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>2025-2027</t>
   </si>
 </sst>
 </file>
@@ -489,28 +496,28 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>52</v>
+            <v>55</v>
           </cell>
           <cell r="D5">
-            <v>25</v>
+            <v>26</v>
           </cell>
           <cell r="E5">
             <v>3</v>
           </cell>
           <cell r="F5">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="G5">
-            <v>53</v>
+            <v>55</v>
           </cell>
           <cell r="H5">
             <v>49</v>
           </cell>
           <cell r="I5">
-            <v>2470</v>
+            <v>2612</v>
           </cell>
           <cell r="J5">
-            <v>2460</v>
+            <v>2605</v>
           </cell>
         </row>
       </sheetData>
@@ -613,6 +620,48 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="M2 2025-2027"/>
+      <sheetName val="M2 2025-2026"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>2</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>3</v>
+          </cell>
+          <cell r="H2">
+            <v>3</v>
+          </cell>
+          <cell r="I2">
+            <v>145</v>
+          </cell>
+          <cell r="J2">
+            <v>158</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -918,7 +967,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,11 +1191,11 @@
       </c>
       <c r="C6" s="4">
         <f>'[4]B 2023-2026'!$C$5</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4">
         <f>'[4]B 2023-2026'!$D$5</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <f>'[4]B 2023-2026'!$E$5</f>
@@ -1154,11 +1203,11 @@
       </c>
       <c r="F6" s="4">
         <f>'[4]B 2023-2026'!$F$5</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4">
         <f>'[4]B 2023-2026'!$G$5</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="4">
         <f>'[4]B 2023-2026'!$H$5</f>
@@ -1166,11 +1215,11 @@
       </c>
       <c r="I6" s="4">
         <f>'[4]B 2023-2026'!$I$5</f>
-        <v>2470</v>
+        <v>2612</v>
       </c>
       <c r="J6" s="4">
         <f>'[4]B 2023-2026'!$J$5</f>
-        <v>2460</v>
+        <v>2605</v>
       </c>
       <c r="K6" s="4">
         <v>15.23</v>
@@ -1218,16 +1267,44 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4">
+        <f>'[8]M2 2025-2027'!$C$2</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>'[8]M2 2025-2027'!$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f>'[8]M2 2025-2027'!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>'[8]M2 2025-2027'!$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <f>'[8]M2 2025-2027'!$G$2</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <f>'[8]M2 2025-2027'!$H$2</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>'[8]M2 2025-2027'!$I$2</f>
+        <v>145</v>
+      </c>
+      <c r="J8" s="4">
+        <f>'[8]M2 2025-2027'!$J$2</f>
+        <v>158</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1237,11 +1314,11 @@
       <c r="B9" s="5"/>
       <c r="C9" s="7">
         <f t="shared" ref="C9:J9" si="0">SUM(C2:C6)</f>
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -1249,11 +1326,11 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
@@ -1261,11 +1338,11 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>17087</v>
+        <v>17229</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>16054</v>
+        <v>16199</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1376,11 +1453,11 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>SUM(C9:C12)</f>
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:J14" si="1">SUM(D9:D12)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -1388,11 +1465,11 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
@@ -1400,11 +1477,11 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>18224</v>
+        <v>18366</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>17319</v>
+        <v>17464</v>
       </c>
       <c r="K14" s="4"/>
     </row>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A3F02-A27D-44F9-AA7C-1F5F7EABC496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E88B09-B560-45F1-B257-58533B58F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20604" windowHeight="13200" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1080" yWindow="1176" windowWidth="20880" windowHeight="12024" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -532,12 +532,42 @@
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="A 2025-2027"/>
       <sheetName val="A 2025-2026"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>3</v>
+          </cell>
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+          <cell r="G4">
+            <v>2</v>
+          </cell>
+          <cell r="H4">
+            <v>4</v>
+          </cell>
+          <cell r="I4">
+            <v>155</v>
+          </cell>
+          <cell r="J4">
+            <v>168</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -545,6 +575,49 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="M2 2025-2027"/>
+      <sheetName val="M2 2025-2026"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>2</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="E2"/>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>3</v>
+          </cell>
+          <cell r="H2">
+            <v>3</v>
+          </cell>
+          <cell r="I2">
+            <v>145</v>
+          </cell>
+          <cell r="J2">
+            <v>158</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -599,7 +672,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -620,48 +693,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="M2 2025-2027"/>
-      <sheetName val="M2 2025-2026"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>2</v>
-          </cell>
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2">
-            <v>3</v>
-          </cell>
-          <cell r="H2">
-            <v>3</v>
-          </cell>
-          <cell r="I2">
-            <v>145</v>
-          </cell>
-          <cell r="J2">
-            <v>158</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -967,7 +998,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,36 +1264,36 @@
         <v>31</v>
       </c>
       <c r="C7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
+        <f>'[5]A 2025-2027'!$C$4</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'[5]A 2025-2027'!$D$4</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f>'[5]A 2025-2027'!$E$4</f>
         <v>0</v>
       </c>
-      <c r="D7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
-      </c>
       <c r="F7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
+        <f>'[5]A 2025-2027'!$F$4</f>
+        <v>2</v>
       </c>
       <c r="G7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
+        <f>'[5]A 2025-2027'!$G$4</f>
+        <v>2</v>
       </c>
       <c r="H7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
+        <f>'[5]A 2025-2027'!$H$4</f>
+        <v>4</v>
       </c>
       <c r="I7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
+        <f>'[5]A 2025-2027'!$I$4</f>
+        <v>155</v>
       </c>
       <c r="J7" s="5">
-        <f>'[5]A 2025-2027'!$C$5</f>
-        <v>0</v>
+        <f>'[5]A 2025-2027'!$J$4</f>
+        <v>168</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -1274,35 +1305,35 @@
         <v>33</v>
       </c>
       <c r="C8" s="4">
-        <f>'[8]M2 2025-2027'!$C$2</f>
+        <f>'[6]M2 2025-2027'!$C$2</f>
         <v>2</v>
       </c>
       <c r="D8" s="4">
-        <f>'[8]M2 2025-2027'!$D$2</f>
+        <f>'[6]M2 2025-2027'!$D$2</f>
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <f>'[8]M2 2025-2027'!$E$2</f>
+        <f>'[6]M2 2025-2027'!$E$2</f>
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>'[8]M2 2025-2027'!$F$2</f>
+        <f>'[6]M2 2025-2027'!$F$2</f>
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <f>'[8]M2 2025-2027'!$G$2</f>
+        <f>'[6]M2 2025-2027'!$G$2</f>
         <v>3</v>
       </c>
       <c r="H8" s="4">
-        <f>'[8]M2 2025-2027'!$H$2</f>
+        <f>'[6]M2 2025-2027'!$H$2</f>
         <v>3</v>
       </c>
       <c r="I8" s="4">
-        <f>'[8]M2 2025-2027'!$I$2</f>
+        <f>'[6]M2 2025-2027'!$I$2</f>
         <v>145</v>
       </c>
       <c r="J8" s="4">
-        <f>'[8]M2 2025-2027'!$J$2</f>
+        <f>'[6]M2 2025-2027'!$J$2</f>
         <v>158</v>
       </c>
       <c r="K8" s="4"/>
@@ -1313,12 +1344,12 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:J9" si="0">SUM(C2:C6)</f>
-        <v>424</v>
+        <f>SUM(C2:C8)</f>
+        <v>429</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>241</v>
+        <f t="shared" ref="D9:J9" si="0">SUM(D2:D8)</f>
+        <v>243</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -1326,23 +1357,23 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>17229</v>
+        <v>17529</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>16199</v>
+        <v>16525</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1367,29 +1398,29 @@
         <v>27</v>
       </c>
       <c r="C11" s="5">
-        <f>[6]powercup!$C$8</f>
+        <f>[7]powercup!$C$8</f>
         <v>24</v>
       </c>
       <c r="D11" s="5">
-        <f>[6]powercup!$D$8</f>
+        <f>[7]powercup!$D$8</f>
         <v>9</v>
       </c>
       <c r="E11" s="5">
-        <f>[6]powercup!$E$8</f>
+        <f>[7]powercup!$E$8</f>
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <f>[6]powercup!$F$8</f>
+        <f>[7]powercup!$F$8</f>
         <v>15</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <f>[6]powercup!$G$8</f>
+        <f>[7]powercup!$G$8</f>
         <v>1137</v>
       </c>
       <c r="J11" s="5">
-        <f>[6]powercup!$H$8</f>
+        <f>[7]powercup!$H$8</f>
         <v>1265</v>
       </c>
       <c r="K11" s="5"/>
@@ -1402,35 +1433,35 @@
         <v>28</v>
       </c>
       <c r="C12" s="4">
-        <f>[7]all!$C$12</f>
+        <f>[8]all!$C$12</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>[7]all!$D$12</f>
+        <f>[8]all!$D$12</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>[7]all!$E$12</f>
+        <f>[8]all!$E$12</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <f>[7]all!$F$12</f>
+        <f>[8]all!$F$12</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f>[7]all!$G$12</f>
+        <f>[8]all!$G$12</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>[7]all!$H$12</f>
+        <f>[8]all!$H$12</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>[7]all!$I$12</f>
+        <f>[8]all!$I$12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>[7]all!$J$12</f>
+        <f>[8]all!$J$12</f>
         <v>0</v>
       </c>
       <c r="K12" s="4"/>
@@ -1453,11 +1484,11 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>SUM(C9:C12)</f>
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:J14" si="1">SUM(D9:D12)</f>
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -1465,23 +1496,23 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>18366</v>
+        <v>18666</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>17464</v>
+        <v>17790</v>
       </c>
       <c r="K14" s="4"/>
     </row>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E88B09-B560-45F1-B257-58533B58F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D9117-D83A-482A-8F56-4EE779BCDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1176" windowWidth="20880" windowHeight="12024" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="84" yWindow="840" windowWidth="22452" windowHeight="11628" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -496,28 +496,28 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>55</v>
+            <v>61</v>
           </cell>
           <cell r="D5">
-            <v>26</v>
+            <v>27</v>
           </cell>
           <cell r="E5">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="F5">
-            <v>26</v>
+            <v>27</v>
           </cell>
           <cell r="G5">
-            <v>55</v>
+            <v>62</v>
           </cell>
           <cell r="H5">
-            <v>49</v>
+            <v>62</v>
           </cell>
           <cell r="I5">
-            <v>2612</v>
+            <v>2906</v>
           </cell>
           <cell r="J5">
-            <v>2605</v>
+            <v>2912</v>
           </cell>
         </row>
       </sheetData>
@@ -543,28 +543,28 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="C4">
+            <v>8</v>
+          </cell>
+          <cell r="D4">
             <v>3</v>
-          </cell>
-          <cell r="D4">
-            <v>1</v>
           </cell>
           <cell r="E4">
             <v>0</v>
           </cell>
           <cell r="F4">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="G4">
-            <v>2</v>
+            <v>7</v>
           </cell>
           <cell r="H4">
-            <v>4</v>
+            <v>11</v>
           </cell>
           <cell r="I4">
-            <v>155</v>
+            <v>400</v>
           </cell>
           <cell r="J4">
-            <v>168</v>
+            <v>428</v>
           </cell>
         </row>
       </sheetData>
@@ -588,26 +588,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="D2">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="E2"/>
           <cell r="F2">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="G2">
-            <v>3</v>
+            <v>12</v>
           </cell>
           <cell r="H2">
-            <v>3</v>
+            <v>15</v>
           </cell>
           <cell r="I2">
-            <v>145</v>
+            <v>750</v>
           </cell>
           <cell r="J2">
-            <v>158</v>
+            <v>799</v>
           </cell>
         </row>
       </sheetData>
@@ -1222,35 +1222,35 @@
       </c>
       <c r="C6" s="4">
         <f>'[4]B 2023-2026'!$C$5</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4">
         <f>'[4]B 2023-2026'!$D$5</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <f>'[4]B 2023-2026'!$E$5</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
         <f>'[4]B 2023-2026'!$F$5</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4">
         <f>'[4]B 2023-2026'!$G$5</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H6" s="4">
         <f>'[4]B 2023-2026'!$H$5</f>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I6" s="4">
         <f>'[4]B 2023-2026'!$I$5</f>
-        <v>2612</v>
+        <v>2906</v>
       </c>
       <c r="J6" s="4">
         <f>'[4]B 2023-2026'!$J$5</f>
-        <v>2605</v>
+        <v>2912</v>
       </c>
       <c r="K6" s="4">
         <v>15.23</v>
@@ -1265,11 +1265,11 @@
       </c>
       <c r="C7" s="5">
         <f>'[5]A 2025-2027'!$C$4</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <f>'[5]A 2025-2027'!$D$4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <f>'[5]A 2025-2027'!$E$4</f>
@@ -1277,23 +1277,23 @@
       </c>
       <c r="F7" s="5">
         <f>'[5]A 2025-2027'!$F$4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5">
         <f>'[5]A 2025-2027'!$G$4</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5">
         <f>'[5]A 2025-2027'!$H$4</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5">
         <f>'[5]A 2025-2027'!$I$4</f>
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="J7" s="5">
         <f>'[5]A 2025-2027'!$J$4</f>
-        <v>168</v>
+        <v>428</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -1306,11 +1306,11 @@
       </c>
       <c r="C8" s="4">
         <f>'[6]M2 2025-2027'!$C$2</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <f>'[6]M2 2025-2027'!$D$2</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
         <f>'[6]M2 2025-2027'!$E$2</f>
@@ -1318,23 +1318,23 @@
       </c>
       <c r="F8" s="4">
         <f>'[6]M2 2025-2027'!$F$2</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
         <f>'[6]M2 2025-2027'!$G$2</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4">
         <f>'[6]M2 2025-2027'!$H$2</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4">
         <f>'[6]M2 2025-2027'!$I$2</f>
-        <v>145</v>
+        <v>750</v>
       </c>
       <c r="J8" s="4">
         <f>'[6]M2 2025-2027'!$J$2</f>
-        <v>158</v>
+        <v>799</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -1345,35 +1345,35 @@
       <c r="B9" s="5"/>
       <c r="C9" s="7">
         <f>SUM(C2:C8)</f>
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:J9" si="0">SUM(D2:D8)</f>
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>17529</v>
+        <v>18673</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>16525</v>
+        <v>17733</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1484,35 +1484,35 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>SUM(C9:C12)</f>
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:J14" si="1">SUM(D9:D12)</f>
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>18666</v>
+        <v>19810</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>17790</v>
+        <v>18998</v>
       </c>
       <c r="K14" s="4"/>
     </row>

--- a/all_years.xlsx
+++ b/all_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779D9117-D83A-482A-8F56-4EE779BCDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509CE914-B0CB-46F4-948E-3E83FF70D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="840" windowWidth="22452" windowHeight="11628" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="10" r:id="rId1"/>
@@ -496,10 +496,10 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>61</v>
+            <v>63</v>
           </cell>
           <cell r="D5">
-            <v>27</v>
+            <v>29</v>
           </cell>
           <cell r="E5">
             <v>7</v>
@@ -508,16 +508,16 @@
             <v>27</v>
           </cell>
           <cell r="G5">
-            <v>62</v>
+            <v>66</v>
           </cell>
           <cell r="H5">
             <v>62</v>
           </cell>
           <cell r="I5">
-            <v>2906</v>
+            <v>3043</v>
           </cell>
           <cell r="J5">
-            <v>2912</v>
+            <v>3034</v>
           </cell>
         </row>
       </sheetData>
@@ -543,28 +543,28 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="C4">
-            <v>8</v>
+            <v>11</v>
           </cell>
           <cell r="D4">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E4">
             <v>0</v>
           </cell>
           <cell r="F4">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="G4">
-            <v>7</v>
+            <v>9</v>
           </cell>
           <cell r="H4">
-            <v>11</v>
+            <v>15</v>
           </cell>
           <cell r="I4">
-            <v>400</v>
+            <v>544</v>
           </cell>
           <cell r="J4">
-            <v>428</v>
+            <v>580</v>
           </cell>
         </row>
       </sheetData>
@@ -588,26 +588,26 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>9</v>
+            <v>11</v>
           </cell>
           <cell r="D2">
             <v>4</v>
           </cell>
           <cell r="E2"/>
           <cell r="F2">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="G2">
-            <v>12</v>
+            <v>14</v>
           </cell>
           <cell r="H2">
-            <v>15</v>
+            <v>19</v>
           </cell>
           <cell r="I2">
-            <v>750</v>
+            <v>940</v>
           </cell>
           <cell r="J2">
-            <v>799</v>
+            <v>1007</v>
           </cell>
         </row>
       </sheetData>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="C6" s="4">
         <f>'[4]B 2023-2026'!$C$5</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4">
         <f>'[4]B 2023-2026'!$D$5</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4">
         <f>'[4]B 2023-2026'!$E$5</f>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="G6" s="4">
         <f>'[4]B 2023-2026'!$G$5</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H6" s="4">
         <f>'[4]B 2023-2026'!$H$5</f>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="I6" s="4">
         <f>'[4]B 2023-2026'!$I$5</f>
-        <v>2906</v>
+        <v>3043</v>
       </c>
       <c r="J6" s="4">
         <f>'[4]B 2023-2026'!$J$5</f>
-        <v>2912</v>
+        <v>3034</v>
       </c>
       <c r="K6" s="4">
         <v>15.23</v>
@@ -1265,11 +1265,11 @@
       </c>
       <c r="C7" s="5">
         <f>'[5]A 2025-2027'!$C$4</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <f>'[5]A 2025-2027'!$D$4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <f>'[5]A 2025-2027'!$E$4</f>
@@ -1277,23 +1277,23 @@
       </c>
       <c r="F7" s="5">
         <f>'[5]A 2025-2027'!$F$4</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
         <f>'[5]A 2025-2027'!$G$4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5">
         <f>'[5]A 2025-2027'!$H$4</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5">
         <f>'[5]A 2025-2027'!$I$4</f>
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="J7" s="5">
         <f>'[5]A 2025-2027'!$J$4</f>
-        <v>428</v>
+        <v>580</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C8" s="4">
         <f>'[6]M2 2025-2027'!$C$2</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
         <f>'[6]M2 2025-2027'!$D$2</f>
@@ -1318,23 +1318,23 @@
       </c>
       <c r="F8" s="4">
         <f>'[6]M2 2025-2027'!$F$2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4">
         <f>'[6]M2 2025-2027'!$G$2</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4">
         <f>'[6]M2 2025-2027'!$H$2</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <f>'[6]M2 2025-2027'!$I$2</f>
-        <v>750</v>
+        <v>940</v>
       </c>
       <c r="J8" s="4">
         <f>'[6]M2 2025-2027'!$J$2</f>
-        <v>799</v>
+        <v>1007</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -1345,11 +1345,11 @@
       <c r="B9" s="5"/>
       <c r="C9" s="7">
         <f>SUM(C2:C8)</f>
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:J9" si="0">SUM(D2:D8)</f>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -1357,23 +1357,23 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>18673</v>
+        <v>19144</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>17733</v>
+        <v>18215</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1484,11 +1484,11 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>SUM(C9:C12)</f>
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:J14" si="1">SUM(D9:D12)</f>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -1496,23 +1496,23 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>19810</v>
+        <v>20281</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>18998</v>
+        <v>19480</v>
       </c>
       <c r="K14" s="4"/>
     </row>
